--- a/2020/February/All Details/03.02.2020/MC Bank Statement Feb'2020.xlsx
+++ b/2020/February/All Details/03.02.2020/MC Bank Statement Feb'2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\February\All Details\03.02.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D7B78F-2782-44CE-91DA-ABE2F90E1745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63486DE6-1B2E-4A08-AA61-ACF984AB95B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="0" windowWidth="13590" windowHeight="11070" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="7" r:id="rId1"/>
